--- a/Bronnen/Consignor.xlsx
+++ b/Bronnen/Consignor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_16ac\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avans\Jaar2\Periode3\projectBusinessIntelligence\Kramse2\Bronnen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63691CA-9450-4002-847D-A94CF4F8BFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F7F2D-8919-41B4-95BC-3F52472EF416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consignor" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Utrecht</t>
   </si>
   <si>
-    <t>Nederland</t>
-  </si>
-  <si>
     <t>H. Sharpe</t>
   </si>
   <si>
@@ -74,18 +71,9 @@
     <t>Newcastle</t>
   </si>
   <si>
-    <t>NL</t>
-  </si>
-  <si>
     <t>F. Delpaz</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
     <t>K. Lindemeijer</t>
   </si>
   <si>
@@ -134,27 +122,18 @@
     <t>H. de Kaan</t>
   </si>
   <si>
-    <t>A'dam</t>
-  </si>
-  <si>
     <t>R. van Rooijen</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>C. de Masserkerke</t>
   </si>
   <si>
     <t>Zeebrugge</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>J. Schimanski</t>
   </si>
   <si>
@@ -197,9 +176,6 @@
     <t>Dubrovnik</t>
   </si>
   <si>
-    <t>Yougoslavia</t>
-  </si>
-  <si>
     <t>D. van der Vlucht</t>
   </si>
   <si>
@@ -209,9 +185,6 @@
     <t>K. Konrath</t>
   </si>
   <si>
-    <t>Deutschland</t>
-  </si>
-  <si>
     <t>A. Bruinsma</t>
   </si>
   <si>
@@ -245,9 +218,6 @@
     <t>Athens</t>
   </si>
   <si>
-    <t>Griekenland</t>
-  </si>
-  <si>
     <t>P. du Maurier</t>
   </si>
   <si>
@@ -305,9 +275,6 @@
     <t>Moskou</t>
   </si>
   <si>
-    <t>Rusland</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -317,9 +284,6 @@
     <t>Leuven</t>
   </si>
   <si>
-    <t>België</t>
-  </si>
-  <si>
     <t>C.J.A. Claussen zu Hohenstein</t>
   </si>
   <si>
@@ -338,36 +302,24 @@
     <t>T. Brady</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>J. Kornuit</t>
   </si>
   <si>
     <t>Gand</t>
   </si>
   <si>
-    <t>Belgique</t>
-  </si>
-  <si>
     <t>C le Bozec</t>
   </si>
   <si>
     <t xml:space="preserve">Trégastel </t>
   </si>
   <si>
-    <t>Francia</t>
-  </si>
-  <si>
     <t>P.L. Passchier</t>
   </si>
   <si>
     <t>Wuust</t>
   </si>
   <si>
-    <t>Belgie</t>
-  </si>
-  <si>
     <t>C. Cioffarelli</t>
   </si>
   <si>
@@ -422,29 +374,35 @@
     <t>Rio de Janiero</t>
   </si>
   <si>
-    <t>Brazilië</t>
-  </si>
-  <si>
     <t>V. Boersin</t>
   </si>
   <si>
     <t>Warsawa</t>
   </si>
   <si>
-    <t>Polska</t>
-  </si>
-  <si>
     <t>K. Van den Broeke</t>
   </si>
   <si>
     <t>Rijsel</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Rome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +557,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -921,11 +879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D65536"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="47.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -935,7 +893,7 @@
     <col min="6" max="16384" width="47.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -963,645 +921,645 @@
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E19" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>35</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>46</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E26" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>38</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>40</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>41</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>42</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>44</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E35" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E36" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E39" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>101</v>
@@ -1610,205 +1568,205 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E42" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E44" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E45" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E47" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E48" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>3</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E49" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>4</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E50" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="E51" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -1830,15 +1788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF1551BE9D2837459D497D79EE019F1E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87f8148ab6286d46188aef6fa8df6994">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81073326-ebee-4c0c-a26a-590ff4adfe90" xmlns:ns3="85fa55d4-3ee8-4bc4-8fbc-63473e847397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41189234b1a7096f4401ff5d18119306" ns2:_="" ns3:_="">
     <xsd:import namespace="81073326-ebee-4c0c-a26a-590ff4adfe90"/>
@@ -2081,10 +2030,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C8ACC2-85C0-4839-97DE-DD30BA4791D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EAF4148-4585-4DD8-B17B-DD499486B65C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="81073326-ebee-4c0c-a26a-590ff4adfe90"/>
+    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EAF4148-4585-4DD8-B17B-DD499486B65C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C8ACC2-85C0-4839-97DE-DD30BA4791D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>